--- a/Test/Epsilon/MSE1000004.xlsx
+++ b/Test/Epsilon/MSE1000004.xlsx
@@ -423,40 +423,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1886251813217238</v>
+        <v>0.189207926298213</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1615725461747079</v>
+        <v>0.1716949013227581</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1148528908051168</v>
+        <v>0.1262466295473569</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1104317184763968</v>
+        <v>0.1214818021377487</v>
       </c>
       <c r="E1" t="n">
-        <v>0.09573446925538344</v>
+        <v>0.1095081329708353</v>
       </c>
       <c r="F1" t="n">
-        <v>0.09191190741528388</v>
+        <v>0.08349617826982894</v>
       </c>
       <c r="G1" t="n">
-        <v>0.08172850638034966</v>
+        <v>0.07422979357231352</v>
       </c>
       <c r="H1" t="n">
-        <v>0.06838362435588304</v>
+        <v>0.07326122889076343</v>
       </c>
       <c r="I1" t="n">
-        <v>0.06389289361566354</v>
+        <v>0.06630114610307523</v>
       </c>
       <c r="J1" t="n">
-        <v>0.06113173551038866</v>
+        <v>0.06521510683546253</v>
       </c>
       <c r="K1" t="n">
-        <v>0.06065450559850234</v>
+        <v>0.06511193907515155</v>
       </c>
       <c r="L1" t="n">
-        <v>0.06036323080178373</v>
+        <v>0.0621683582343957</v>
       </c>
     </row>
   </sheetData>
